--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,88 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2 - x - 0.5y</t>
-  </si>
-  <si>
-    <t>-1.3707387869039336</t>
+    <t>4.49 - x - 0.5y</t>
+  </si>
+  <si>
+    <t>-2.49</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5719608447391625</t>
-  </si>
-  <si>
-    <t>0.5493799975895038</t>
-  </si>
-  <si>
-    <t>0.8204094099396009</t>
-  </si>
-  <si>
-    <t>-2 - 0.25x + y</t>
-  </si>
-  <si>
-    <t>0.6606149197619227</t>
-  </si>
-  <si>
-    <t>0.8600010900817717</t>
-  </si>
-  <si>
-    <t>0.06384273506310999</t>
-  </si>
-  <si>
-    <t>0.9414019581349927</t>
-  </si>
-  <si>
-    <t>-8 + x + 0.5y</t>
-  </si>
-  <si>
-    <t>-4.629261213096066</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>6.8999999999999995</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-4.4125 - 0.25x + y</t>
+  </si>
+  <si>
+    <t>2.4124999999999996</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.200000000000001</t>
+  </si>
+  <si>
+    <t>-4.49 + x + 0.5y</t>
+  </si>
+  <si>
+    <t>-3.51</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.2524405147195238</t>
-  </si>
-  <si>
-    <t>0.8669255404154361</t>
-  </si>
-  <si>
-    <t>0.3123797772569672</t>
-  </si>
-  <si>
-    <t>-2 + x - 2y</t>
-  </si>
-  <si>
-    <t>-6.41437147195808</t>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>-11.809999999999999 + x - 2y</t>
+  </si>
+  <si>
+    <t>-9.809999999999999</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.25205297546627203</t>
-  </si>
-  <si>
-    <t>0.8378535446791457</t>
-  </si>
-  <si>
-    <t>0.7715993002811632</t>
-  </si>
-  <si>
-    <t>-y</t>
-  </si>
-  <si>
-    <t>-3.1140441035448054</t>
-  </si>
-  <si>
-    <t>0.0911069374509522</t>
-  </si>
-  <si>
-    <t>0.037687753645833426</t>
-  </si>
-  <si>
-    <t>0.8423328615467841</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>-4.92 - y</t>
+  </si>
+  <si>
+    <t>-4.92</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -156,25 +156,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.8137167351315309</t>
-  </si>
-  <si>
-    <t>3.1140441035448054</t>
+    <t>2.0300000000000002</t>
+  </si>
+  <si>
+    <t>4.92</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.8949719633115439</t>
+    <t>0.8300000000000001</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.1394384037393004</t>
-  </si>
-  <si>
-    <t>0.4907793365280486</t>
+    <t>-3.3000000000000007</t>
+  </si>
+  <si>
+    <t>11.0</t>
   </si>
   <si>
     <t>vec_alpha</t>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,85 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>4.49 - x - 0.5y</t>
-  </si>
-  <si>
-    <t>-2.49</t>
+    <t>6.915 - x - 0.5y</t>
+  </si>
+  <si>
+    <t>-4.915</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>6.8999999999999995</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>-4.4125 - 0.25x + y</t>
-  </si>
-  <si>
-    <t>2.4124999999999996</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>9.200000000000001</t>
-  </si>
-  <si>
-    <t>-4.49 + x + 0.5y</t>
-  </si>
-  <si>
-    <t>-3.51</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>-1.0500000000000003 - 0.25x + y</t>
+  </si>
+  <si>
+    <t>-0.9499999999999997</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>-6.915 + x + 0.5y</t>
+  </si>
+  <si>
+    <t>-1.085</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.699999999999999</t>
-  </si>
-  <si>
-    <t>-11.809999999999999 + x - 2y</t>
-  </si>
-  <si>
-    <t>-9.809999999999999</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>-3.2600000000000007 + x - 2y</t>
+  </si>
+  <si>
+    <t>-1.2600000000000007</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>-4.92 - y</t>
-  </si>
-  <si>
-    <t>-4.92</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>7.800000000000001</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>4.6000000000000005</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>-2.47 - y</t>
+  </si>
+  <si>
+    <t>-2.47</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>8.4</t>
   </si>
   <si>
     <t>x</t>
@@ -156,25 +153,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.0300000000000002</t>
-  </si>
-  <si>
-    <t>4.92</t>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>2.47</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.8300000000000001</t>
+    <t>1.76</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.3000000000000007</t>
-  </si>
-  <si>
-    <t>11.0</t>
+    <t>5.5249999999999995</t>
+  </si>
+  <si>
+    <t>6.250000000000001</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,67 +645,67 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -726,18 +723,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -755,12 +752,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -778,17 +775,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -806,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -66,85 +66,85 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>6.915 - x - 0.5y</t>
-  </si>
-  <si>
-    <t>-4.915</t>
+    <t>7.865 - x - 0.5y</t>
+  </si>
+  <si>
+    <t>-5.865</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>5.300000000000001</t>
-  </si>
-  <si>
-    <t>-1.0500000000000003 - 0.25x + y</t>
-  </si>
-  <si>
-    <t>-0.9499999999999997</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>-6.915 + x + 0.5y</t>
-  </si>
-  <si>
-    <t>-1.085</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.4000000000000004</t>
+  </si>
+  <si>
+    <t>-4.975 - 0.25x + y</t>
+  </si>
+  <si>
+    <t>2.9749999999999996</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>-7.865 + x + 0.5y</t>
+  </si>
+  <si>
+    <t>-0.1349999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>-3.2600000000000007 + x - 2y</t>
-  </si>
-  <si>
-    <t>-1.2600000000000007</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>-11.559999999999999 + x - 2y</t>
+  </si>
+  <si>
+    <t>-9.559999999999999</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>4.6000000000000005</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>-2.47 - y</t>
-  </si>
-  <si>
-    <t>-2.47</t>
-  </si>
-  <si>
-    <t>0.47</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>8.4</t>
+    <t>-6.17 - y</t>
+  </si>
+  <si>
+    <t>-6.17</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
   <si>
     <t>x</t>
@@ -153,25 +153,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>2.47</t>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>6.17</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.76</t>
+    <t>2.215</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>5.5249999999999995</t>
-  </si>
-  <si>
-    <t>6.250000000000001</t>
+    <t>-9.125</t>
+  </si>
+  <si>
+    <t>11.9</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -645,67 +645,67 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
